--- a/data/01_raw/default_user/data_set_samples/cycle/cell_list.xlsx
+++ b/data/01_raw/default_user/data_set_samples/cycle/cell_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdeange\Documents\BA\battery_archive_demo\all_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hege/workspace/battery-archive-sandbox/data/01_raw/default_user/data_set_samples/cycle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C76A6A2-88E5-4455-80B7-499DEC1E49FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ED6E9C-07C0-F74D-A2D7-E69BF5F173D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13860" yWindow="-24120" windowWidth="57840" windowHeight="23640" xr2:uid="{07EF3D65-9BA3-43DB-B014-0F8C59FBB292}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{07EF3D65-9BA3-43DB-B014-0F8C59FBB292}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>NMC</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>txt</t>
+  </si>
+  <si>
+    <t>mapping</t>
   </si>
 </sst>
 </file>
@@ -126,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +145,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -174,17 +184,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,29 +536,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4900B09B-8105-4727-A8D5-7A7308C12DCF}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -567,8 +604,11 @@
       <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="P1" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -614,8 +654,9 @@
       <c r="O2" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -661,6 +702,7 @@
       <c r="O3" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="P3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
